--- a/Asked Questions in Newton School/DSA with java Asked Questions.xlsx
+++ b/Asked Questions in Newton School/DSA with java Asked Questions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Backup:</t>
   </si>
@@ -201,12 +201,24 @@
   <si>
     <t>Advantage and Disadvances of an Array.</t>
   </si>
+  <si>
+    <t>Java is a high-level, class-based, 
+object-oriented programming language</t>
+  </si>
+  <si>
+    <t>data structure is a data organization, management, and storage format that is usually chosen for efficient access to data.</t>
+  </si>
+  <si>
+    <t>An algorithm is a set of commands that must be followed for
+a computer to perform calculations or other problem-solving
+operations</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +277,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -385,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -404,6 +429,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,73 +483,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -799,22 +818,22 @@
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -841,74 +860,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="C4" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="C5" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -916,285 +941,285 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="9">
         <v>14</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="9">
         <v>15</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="9">
         <v>19</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="11">
         <v>3</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="11">
         <v>4</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="11">
         <v>5</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="11">
         <v>6</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="11">
         <v>7</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="11">
         <v>8</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="11">
         <v>9</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="11">
         <v>10</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="11">
         <v>11</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+      <c r="A38" s="11">
         <v>12</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+      <c r="A39" s="11">
         <v>13</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -1204,7 +1229,7 @@
     <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1219,15 +1244,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
@@ -1239,15 +1264,15 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
@@ -1262,14 +1287,14 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Asked Questions in Newton School/DSA with java Asked Questions.xlsx
+++ b/Asked Questions in Newton School/DSA with java Asked Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="DSA-1 EMH" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Backup:</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Pavan Bhansali</t>
-  </si>
-  <si>
-    <t>Easy / Medium / Hard</t>
   </si>
   <si>
     <t>Easy</t>
@@ -212,6 +209,47 @@
     <t>An algorithm is a set of commands that must be followed for
 a computer to perform calculations or other problem-solving
 operations</t>
+  </si>
+  <si>
+    <t>Code 1: Find all pairs whose elements sum is equal to the target sum.</t>
+  </si>
+  <si>
+    <t>input: {1 2 3 4 5 6} int k = 7;</t>
+  </si>
+  <si>
+    <t>Output: {1,6} {2,5} {3,4}</t>
+  </si>
+  <si>
+    <t>Code 2: Sort the array in a way all odd numbers came first in ascending order and all even numbers came in descending order.</t>
+  </si>
+  <si>
+    <t>Input: {1 6 2 7 3 9 8 4}</t>
+  </si>
+  <si>
+    <t>Output: {1 3 7 9 8 6 4 2}</t>
+  </si>
+  <si>
+    <t>Code 3: Find the maximum repeated element from the array, if multiple element have the same high-frequency return a big number.</t>
+  </si>
+  <si>
+    <t>Input: {1 6 4 2 7 4 2 3 9 2 8 4}</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Nikhil Arvindbhai Butani</t>
+  </si>
+  <si>
+    <t>2D Array implementation</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Easy /
+Medium /
+Hard</t>
   </si>
 </sst>
 </file>
@@ -299,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -359,19 +397,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -410,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -453,47 +478,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,10 +497,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -789,25 +817,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="1" max="1" width="122.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
+      <c r="B1" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
@@ -816,31 +844,109 @@
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="24"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25"/>
+      <c r="A4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -860,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -872,39 +978,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="A1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>53</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -912,10 +1018,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.25">
@@ -923,10 +1029,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -945,10 +1051,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -956,10 +1062,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -967,10 +1073,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -978,10 +1084,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -989,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="14"/>
     </row>
@@ -998,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="14"/>
     </row>
@@ -1007,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="14"/>
     </row>
@@ -1016,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="14"/>
     </row>
@@ -1025,7 +1131,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="14"/>
     </row>
@@ -1034,7 +1140,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="14"/>
     </row>
@@ -1043,10 +1149,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1054,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="14"/>
     </row>
@@ -1063,7 +1169,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="14"/>
     </row>
@@ -1072,7 +1178,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="14"/>
     </row>
@@ -1081,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="14"/>
     </row>
@@ -1101,21 +1207,21 @@
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>1</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1123,10 +1229,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -1134,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1145,10 +1251,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1156,10 +1262,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1167,10 +1273,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,15 +1350,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
@@ -1264,15 +1370,15 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
@@ -1287,14 +1393,14 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
